--- a/Project_python/out/matrix_classification_abstract_kw.xlsx
+++ b/Project_python/out/matrix_classification_abstract_kw.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.036663293170033195]</t>
+          <t>[0.0734886058673124]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.0614877821410386]</t>
+          <t>[0.05530451660186496]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -538,7 +538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[2, 6]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.019191719836516047, 0.018832299313889665]</t>
+          <t>[0.019780000438122922, 0.01918424360331902]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.053192096790273154]</t>
+          <t>[0.05806728306592782]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.05775128380124499]</t>
+          <t>[0.057349963916461244]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.04068614763179933]</t>
+          <t>[0.03626515808791247]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.06577176441386182]</t>
+          <t>[0.06670434847921]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -693,7 +693,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.03228503578226162]</t>
+          <t>[0.08619368202318715]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -724,24 +724,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>[2]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.031579575478589694]</t>
+          <t>[0.06634717064801907]</t>
         </is>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.08484073378056606]</t>
+          <t>[0.08640937795653088]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -796,7 +796,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.032265515322699286]</t>
+          <t>[0.031038480860193427]</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.09906407968643977]</t>
+          <t>[0.09899558786666932]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.05109547595447089]</t>
+          <t>[0.056843959373599484]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -879,7 +879,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[3, 17]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.016813114758315182, 0.011565603875137978]</t>
+          <t>[0.02104694326286252, 0.018579265093469934]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.06544730405660742]</t>
+          <t>[0.07150711235562196]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.05505560288887065]</t>
+          <t>[0.04964500516238219]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -972,7 +972,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.02306191041208917]</t>
+          <t>[0.0252892344936131]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.03301765924897139]</t>
+          <t>[0.030748440596389492]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.02983150093126033, 0.0223164520785978]</t>
+          <t>[0.0647234416274182, 0.02164316763336402]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.013629925420963149]</t>
+          <t>[0.013855962587697687]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.02128264209756179]</t>
+          <t>[0.01894385658924622]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.039555211929096674]</t>
+          <t>[0.029070377726700614]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.03853734525775161]</t>
+          <t>[0.07674523425948489]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.021081029157864115]</t>
+          <t>[0.019880455166705464]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.03938804249079198, 0.03148979430923611]</t>
+          <t>[0.03082616516706403, 0.029188360984615348]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.03808919443189807, 0.015193188865826246]</t>
+          <t>[0.02718417150813917, 0.015186781967513486]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.035329113713484454]</t>
+          <t>[0.037773715172573906]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.11746199048475274]</t>
+          <t>[0.12789088586530956]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.01507490506649074]</t>
+          <t>[0.016538872717160067]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[6, 17]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.043558072047110936, 0.024485445884019224]</t>
+          <t>[0.04548467539742212, 0.04386290722172607]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.041955100792281326]</t>
+          <t>[0.037175995183436054]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.03230102298782187]</t>
+          <t>[0.02876507566160255]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.0678047937231044]</t>
+          <t>[0.07202547166571964]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.05693626667455417]</t>
+          <t>[0.06243347034178307]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.030989789971099233]</t>
+          <t>[0.03334137416264823]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.027080059704693463]</t>
+          <t>[0.037975793044350836]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.020698976199264103]</t>
+          <t>[0.022552015111233448]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.026374861800407975]</t>
+          <t>[0.028116488719195837]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.022414354954264904]</t>
+          <t>[0.024505151751712872]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.02750692253130446]</t>
+          <t>[0.05345079685597446]</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1726,14 +1726,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.025205284045145285]</t>
+          <t>[0.028468327759155615]</t>
         </is>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.051466168441413766]</t>
+          <t>[0.05515413806481891]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.029871069883053693]</t>
+          <t>[0.034504287286589615]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.0247555725525042]</t>
+          <t>[0.05105266286108878]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[12, 15]</t>
+          <t>[13, 15]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.021130429705868963, 0.018342194722568407]</t>
+          <t>[0.022057430661825528, 0.016633683227472537]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.021647203578572284]</t>
+          <t>[0.023847379334952262]</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[11, 14]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.015161420649882528, 0.01262760080240054]</t>
+          <t>[0.015911197870966468, 0.011716631276919309]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.032691229295631646]</t>
+          <t>[0.024243149642066784]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.12619208810135163]</t>
+          <t>[0.10875647186037721]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.04045307271169679]</t>
+          <t>[0.04234454683740382]</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.13863154811051906]</t>
+          <t>[0.12292634915926967]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.042716940842724385]</t>
+          <t>[0.03805312603675271]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2088,24 +2088,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.03842257578052215]</t>
+          <t>[0.06367723307003505]</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.048097962158699055]</t>
+          <t>[0.04291458170182813]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,24 +2150,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.023720267483010257]</t>
+          <t>[0.044936738637248154]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.03550349676389627]</t>
+          <t>[0.05681576154697073]</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.03376050825944801]</t>
+          <t>[0.029803965588913763]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.02855797573766897]</t>
+          <t>[0.03247025116648279]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.02468903169425823]</t>
+          <t>[0.02192498454089878]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.14535674867563958]</t>
+          <t>[0.15784874064453686]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.05383970588457766]</t>
+          <t>[0.05771884633174453]</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.03704701157145251]</t>
+          <t>[0.03918034608489067]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.04683364738774752]</t>
+          <t>[0.049729783162117056]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.07061613839188081]</t>
+          <t>[0.07483247458726955]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.05509443876598306]</t>
+          <t>[0.10288834352393432]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.034610427204200045]</t>
+          <t>[0.03574325005007427]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.015770568572434914]</t>
+          <t>[0.01642605001168142]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.040064289106377333]</t>
+          <t>[0.05482887547070769]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.07251888371582564]</t>
+          <t>[0.06855459274996258]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2615,24 +2615,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>[6]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>[6]</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.03720361728728585]</t>
+          <t>[0.06314155159085413]</t>
         </is>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.07752653768993692]</t>
+          <t>[0.07415512076009824]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.03404039833513046, 0.014970484279829485]</t>
+          <t>[0.03259324771668755, 0.02757810657496322]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.16837068003215447]</t>
+          <t>[0.1740156189256028]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.02062544030800073]</t>
+          <t>[0.02305073096600642]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.023802769999066022]</t>
+          <t>[0.05003878256087149]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.03479958466492823]</t>
+          <t>[0.027755340250391534]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.061882139913023236, 0.01476966949371206]</t>
+          <t>[0.044556159617890646, 0.015922539569005634]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.03352218489423908]</t>
+          <t>[0.06638864175492261]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.029784276246328328]</t>
+          <t>[0.06191107494649853]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[8, 13]</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.08328058495475825, 0.02116581118927557]</t>
+          <t>[0.060607221995903245, 0.02078498934530815]</t>
         </is>
       </c>
       <c r="F82" t="b">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.03678663444494579]</t>
+          <t>[0.04753123628958015]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.014292621162454]</t>
+          <t>[0.018926866499175313]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.051601082258948924]</t>
+          <t>[0.0534328184718808]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.057457628874209306]</t>
+          <t>[0.02490684311837191]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.05481909296454137, 0.011481114362171843]</t>
+          <t>[0.023173597083772875, 0.01095374075168297]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.16628744625026962, 0.03046616906015371]</t>
+          <t>[0.1721789174101677, 0.060274147956899275]</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.14335362451728995, 0.03892411860570295]</t>
+          <t>[0.1487146627139802, 0.07680292405499166]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.0363051176325599, 0.021644924008029708]</t>
+          <t>[0.03973545644065789, 0.023506261289329405]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.0445275904471472]</t>
+          <t>[0.03494281792179857]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.02460005678770444]</t>
+          <t>[0.024942367162678274]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.03314602784888885]</t>
+          <t>[0.035216745128451396]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.030959356080136058]</t>
+          <t>[0.03466991551884797]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.02789659276384409]</t>
+          <t>[0.029818050793666537]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.14842026836927785]</t>
+          <t>[0.1534401162498025]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.02475246638519127]</t>
+          <t>[0.026502739048653388]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.05415159551775758]</t>
+          <t>[0.056133408681407385]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.24650949564181016]</t>
+          <t>[0.255079665235866]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.015298714129269243]</t>
+          <t>[0.015271189164547519]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.031038530963140805]</t>
+          <t>[0.028690662500219587]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.0706253709377707]</t>
+          <t>[0.07233742474083292]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.042955609361228116]</t>
+          <t>[0.04263184999082741]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.08375884396315367]</t>
+          <t>[0.08675835131937508]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.15850038670285863]</t>
+          <t>[0.14904681013435245]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.02518081689054145]</t>
+          <t>[0.0193430354920434]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.01902197451124721]</t>
+          <t>[0.020182694500192767]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.02599848698138747]</t>
+          <t>[0.0295869130956023]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.24875112136611743]</t>
+          <t>[0.22762459556040263]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.015457630077413178]</t>
+          <t>[0.030582574912143425]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.037615343851442065]</t>
+          <t>[0.1554070189357938]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.052393499576579836]</t>
+          <t>[0.050586354134562236]</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.0963385386145715]</t>
+          <t>[0.09352070927349522]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.09158336568837108]</t>
+          <t>[0.08918667705507424]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.10723258889517148]</t>
+          <t>[0.10339416424855678]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.0374878884355135]</t>
+          <t>[0.03697549908471053]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.08256400458817512]</t>
+          <t>[0.08586998128621919]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.14673165980958064]</t>
+          <t>[0.13866893108946013]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.07750431133340588]</t>
+          <t>[0.07384570284922223]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.05050333408864565]</t>
+          <t>[0.04865832574832479]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.04428168709115025]</t>
+          <t>[0.04162065334502166]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.019123077569255468]</t>
+          <t>[0.018404693322552908]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.09133292098401827]</t>
+          <t>[0.08788268899940306]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.09874222361474796]</t>
+          <t>[0.09310452629967716]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.1657648247818835]</t>
+          <t>[0.15627955571019075]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.08469623739051446]</t>
+          <t>[0.07934013263961354]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4475,24 +4475,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>[15]</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.03997737473366007]</t>
+          <t>[0.04509756635492336]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.1064222231951218]</t>
+          <t>[0.10040200806866761]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.08797675553834675]</t>
+          <t>[0.0976650565153649]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4568,24 +4568,24 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.013352759096422697]</t>
+          <t>[0.017002610089072334]</t>
         </is>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4599,24 +4599,24 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.018921021844798196]</t>
+          <t>[0.030113161673910385]</t>
         </is>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.037826307743516856]</t>
+          <t>[0.03944103125979739]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.03622078272787489]</t>
+          <t>[0.037838002790226026]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4692,24 +4692,24 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.017866201964160864]</t>
+          <t>[0.026754426216019034]</t>
         </is>
       </c>
       <c r="F138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.03868211474728539]</t>
+          <t>[0.07937543021454814]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.02810193015351408]</t>
+          <t>[0.030368748067139902]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.00923957768537189]</t>
+          <t>[0.009876631953536313]</t>
         </is>
       </c>
       <c r="F141" t="b">

--- a/Project_python/out/matrix_classification_abstract_kw.xlsx
+++ b/Project_python/out/matrix_classification_abstract_kw.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.0734886058673124]</t>
+          <t>[0.024561522413607186]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.05530451660186496]</t>
+          <t>[0.06209424709237971]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -538,7 +538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[2, 6]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.019780000438122922, 0.01918424360331902]</t>
+          <t>[0.01923409032587504, 0.01859440975089019]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.05806728306592782]</t>
+          <t>[0.05940630283040153]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.057349963916461244]</t>
+          <t>[0.05827847533020211]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.03626515808791247]</t>
+          <t>[0.04103548689394354]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.06670434847921]</t>
+          <t>[0.0672897407628729]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -693,7 +693,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.08619368202318715]</t>
+          <t>[0.03224839756324056]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -724,7 +724,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -734,14 +734,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.06634717064801907]</t>
+          <t>[0.03166080182716468]</t>
         </is>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.08640937795653088]</t>
+          <t>[0.08455087390911806]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -796,7 +796,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.031038480860193427]</t>
+          <t>[0.03191184553554493]</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.09899558786666932]</t>
+          <t>[0.09867591736346773]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.056843959373599484]</t>
+          <t>[0.05128512958873944]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -879,7 +879,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[3, 12]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.02104694326286252, 0.018579265093469934]</t>
+          <t>[0.016492586175085498, 0.012897248146517028]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.07150711235562196]</t>
+          <t>[0.06543912309678937]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.04964500516238219]</t>
+          <t>[0.05550296129113997]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -972,7 +972,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.0252892344936131]</t>
+          <t>[0.02378213092720015]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.030748440596389492]</t>
+          <t>[0.03276367645869596]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[17, 14]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.0647234416274182, 0.02164316763336402]</t>
+          <t>[0.030800906923845055, 0.02542329211312105]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.013855962587697687]</t>
+          <t>[0.018083023991160317]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.01894385658924622]</t>
+          <t>[0.021169503906740106]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.029070377726700614]</t>
+          <t>[0.030901185077116707]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.07674523425948489]</t>
+          <t>[0.021496786687729613]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.019880455166705464]</t>
+          <t>[0.020370164764129752]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.03082616516706403, 0.029188360984615348]</t>
+          <t>[0.03338198670262231, 0.031082428107538237]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.02718417150813917, 0.015186781967513486]</t>
+          <t>[0.03070720538145071, 0.014356469298027094]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.037773715172573906]</t>
+          <t>[0.0470628852788011]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.12789088586530956]</t>
+          <t>[0.11800394821430558]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.016538872717160067]</t>
+          <t>[0.014102046056969408]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[6, 17]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.04548467539742212, 0.04386290722172607]</t>
+          <t>[0.044221526862720864, 0.02659529343336266]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.037175995183436054]</t>
+          <t>[0.04379446944739897]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.02876507566160255]</t>
+          <t>[0.03279376618953]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.07202547166571964]</t>
+          <t>[0.06859421331599637]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.06243347034178307]</t>
+          <t>[0.05706323737436756]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.03334137416264823]</t>
+          <t>[0.03204037015377198]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.037975793044350836]</t>
+          <t>[0.03449814047995534]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.022552015111233448]</t>
+          <t>[0.020763547621508133]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.028116488719195837]</t>
+          <t>[0.02606447127207724]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.024505151751712872]</t>
+          <t>[0.02229837652347465]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.05345079685597446]</t>
+          <t>[0.026854896711403564]</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -1716,24 +1716,24 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.028468327759155615]</t>
+          <t>[0.025935590893710343]</t>
         </is>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.05515413806481891]</t>
+          <t>[0.051730507091493357]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.034504287286589615]</t>
+          <t>[0.03177109997014886]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.05105266286108878]</t>
+          <t>[0.018907540942339904]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[12, 15]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.022057430661825528, 0.016633683227472537]</t>
+          <t>[0.023891279967806895, 0.018355666986111706]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.023847379334952262]</t>
+          <t>[0.02146563298320597]</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[11, 14]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.015911197870966468, 0.011716631276919309]</t>
+          <t>[0.015320505722528981, 0.012809509656752798]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.024243149642066784]</t>
+          <t>[0.025098224524652206]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.10875647186037721]</t>
+          <t>[0.12693810944989156]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.04234454683740382]</t>
+          <t>[0.041055214993084274]</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.12292634915926967]</t>
+          <t>[0.14596125988542663]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.03805312603675271]</t>
+          <t>[0.04316843572985197]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2098,14 +2098,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.06367723307003505]</t>
+          <t>[0.0432674510817283]</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.04291458170182813]</t>
+          <t>[0.049003882259952204]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2160,14 +2160,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.044936738637248154]</t>
+          <t>[0.026484850422179775]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.05681576154697073]</t>
+          <t>[0.03567316632964168]</t>
         </is>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.029803965588913763]</t>
+          <t>[0.034081479208503865]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.03247025116648279]</t>
+          <t>[0.01932154615139567]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.02192498454089878]</t>
+          <t>[0.026021374608893293]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.15784874064453686]</t>
+          <t>[0.08866032758320926]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2346,14 +2346,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.05771884633174453]</t>
+          <t>[0.04706089533177565]</t>
         </is>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.03918034608489067]</t>
+          <t>[0.04900764527825686]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.049729783162117056]</t>
+          <t>[0.060609034970304496]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.07483247458726955]</t>
+          <t>[0.0936679745821918]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.10288834352393432]</t>
+          <t>[0.02724040996743373]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.03574325005007427]</t>
+          <t>[0.03463310822623095]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.01642605001168142]</t>
+          <t>[0.01635823843938303]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.05482887547070769]</t>
+          <t>[0.029647502583570216]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.06855459274996258]</t>
+          <t>[0.07266998844438922]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.06314155159085413]</t>
+          <t>[0.03825514673494541]</t>
         </is>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.07415512076009824]</t>
+          <t>[0.07746843439165232]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[15, 17]</t>
+          <t>[15, 12]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.03259324771668755, 0.02757810657496322]</t>
+          <t>[0.034467321226326765, 0.01471792283460501]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.1740156189256028]</t>
+          <t>[0.16789252100689941]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.02305073096600642]</t>
+          <t>[0.02743999058893199]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.05003878256087149]</t>
+          <t>[0.015210011259610301]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.027755340250391534]</t>
+          <t>[0.024461772574824618]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.044556159617890646, 0.015922539569005634]</t>
+          <t>[0.04703246290348621, 0.015430296039671852]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.06638864175492261]</t>
+          <t>[0.024959527546653527]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.06191107494649853]</t>
+          <t>[0.011525789374622746]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[8, 13]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.060607221995903245, 0.02078498934530815]</t>
+          <t>[0.06326511114334628, 0.02230394760597412]</t>
         </is>
       </c>
       <c r="F82" t="b">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.04753123628958015]</t>
+          <t>[0.0255583062616434]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.018926866499175313]</t>
+          <t>[0.012449406593277035]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.0534328184718808]</t>
+          <t>[0.051621504455263825]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.02490684311837191]</t>
+          <t>[0.05856911066377454]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.023173597083772875, 0.01095374075168297]</t>
+          <t>[0.05585614762938795, 0.01108700571574341]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.1721789174101677, 0.060274147956899275]</t>
+          <t>[0.16993080073400846, 0.032722592235157145]</t>
         </is>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[6, 17]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.1487146627139802, 0.07680292405499166]</t>
+          <t>[0.1445668433468622, 0.04540682861795471]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.03973545644065789, 0.023506261289329405]</t>
+          <t>[0.03581459069825413, 0.01488871875936619]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.03494281792179857]</t>
+          <t>[0.03269226232494807]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.024942367162678274]</t>
+          <t>[0.024826641813243885]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.035216745128451396]</t>
+          <t>[0.04330613964285054]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.03466991551884797]</t>
+          <t>[0.03954616058550874]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.029818050793666537]</t>
+          <t>[0.03585458354957217]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.1534401162498025]</t>
+          <t>[0.14784359927550544]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.026502739048653388]</t>
+          <t>[0.0258682774487163]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.056133408681407385]</t>
+          <t>[0.05365895749030371]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.255079665235866]</t>
+          <t>[0.24973736439713193]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.015271189164547519]</t>
+          <t>[0.01196587324529923]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.028690662500219587]</t>
+          <t>[0.030256681399362367]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.07233742474083292]</t>
+          <t>[0.07025708660345502]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.04263184999082741]</t>
+          <t>[0.04296056759813417]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.08675835131937508]</t>
+          <t>[0.08370455396170962]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.14904681013435245]</t>
+          <t>[0.15687712329986866]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.0193430354920434]</t>
+          <t>[0.017844373760934205]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.020182694500192767]</t>
+          <t>[0.022251667765136995]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.0295869130956023]</t>
+          <t>[0.027542816038801]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.22762459556040263]</t>
+          <t>[0.2574897010392192]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.030582574912143425]</t>
+          <t>[0.013420402562215392]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.1554070189357938]</t>
+          <t>[0.038222438064927484]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.050586354134562236]</t>
+          <t>[0.05376134108584789]</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.09352070927349522]</t>
+          <t>[0.09905247933704919]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.08918667705507424]</t>
+          <t>[0.09449315769270299]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.10339416424855678]</t>
+          <t>[0.10978151165411949]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.03697549908471053]</t>
+          <t>[0.03842619965197794]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.08586998128621919]</t>
+          <t>[0.08208275529192575]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.13866893108946013]</t>
+          <t>[0.14984092924159476]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.07384570284922223]</t>
+          <t>[0.08216713607377323]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.04865832574832479]</t>
+          <t>[0.04975560700755874]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.04162065334502166]</t>
+          <t>[0.04422764664820227]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.018404693322552908]</t>
+          <t>[0.019096461428635195]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.08788268899940306]</t>
+          <t>[0.09048974265674323]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.09310452629967716]</t>
+          <t>[0.09828347391512737]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.15627955571019075]</t>
+          <t>[0.16429601772386793]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.07934013263961354]</t>
+          <t>[0.08580579721097722]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4485,14 +4485,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.04509756635492336]</t>
+          <t>[0.040186305415569584]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.10040200806866761]</t>
+          <t>[0.10620475476823354]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.0976650565153649]</t>
+          <t>[0.08690082676549443]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.017002610089072334]</t>
+          <t>[0.015542582256841247]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4609,14 +4609,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.030113161673910385]</t>
+          <t>[0.01277255837892979]</t>
         </is>
       </c>
       <c r="F135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.03944103125979739]</t>
+          <t>[0.039525436781932426]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.037838002790226026]</t>
+          <t>[0.0378209597408144]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.026754426216019034]</t>
+          <t>[0.013074909564350668]</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.07937543021454814]</t>
+          <t>[0.023312345423891212]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4754,24 +4754,24 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.030368748067139902]</t>
+          <t>[0.018094887091985333]</t>
         </is>
       </c>
       <c r="F140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.009876631953536313]</t>
+          <t>[0.012248837778444394]</t>
         </is>
       </c>
       <c r="F141" t="b">
